--- a/开发计划.xlsx
+++ b/开发计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\meta\MetaGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44019423-4DAB-438F-B9CC-EF9ED032508B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5CE8E8-07AB-4EA3-A60E-4C81A15713F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,11 +67,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>战斗流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能编辑器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,7 +414,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -462,7 +462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -470,9 +470,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -480,7 +480,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
